--- a/Config/Excel/GachaTabs.xlsx
+++ b/Config/Excel/GachaTabs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\WORKS\ver2.0.0\01_ガチャ機能改修\設定ファイル\02_修正後\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0774F1C-F387-4C0B-A5B6-927DBE88CB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3C5703-143F-4726-9EE8-4476843EDB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,23 +86,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Textures/button_2d_84</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Textures/shop_2d_082</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Textures/button_2d_85</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Textures/button_2d_86</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Textures/button_2d_87</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -228,6 +212,19 @@
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_084</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_085</t>
+  </si>
+  <si>
+    <t>Textures/shop_2d_086</t>
+  </si>
+  <si>
+    <t>Textures/shop_2d_087</t>
   </si>
 </sst>
 </file>
@@ -698,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1B00CF-321F-4070-96EE-2D0073F8556E}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -715,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -730,16 +727,16 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -747,22 +744,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H2" s="6">
         <v>1</v>
@@ -775,22 +772,22 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H3" s="6">
         <v>2</v>
@@ -803,31 +800,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="6">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6">
-        <v>14</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="J4" s="6">
         <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>15</v>
-      </c>
-      <c r="J4" s="6">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -835,19 +832,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G5" s="6">
         <v>16</v>
@@ -872,7 +869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7763A2E5-CD43-4ACC-832A-B3998DE40EAE}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -884,7 +881,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -899,22 +896,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -927,7 +924,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -967,42 +964,42 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/GachaTabs.xlsx
+++ b/Config/Excel/GachaTabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3C5703-143F-4726-9EE8-4476843EDB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D4058D-653E-4B7C-99C8-75E6388955A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
@@ -322,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,6 +346,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,7 +699,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -749,8 +752,8 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
@@ -778,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>

--- a/Config/Excel/GachaTabs.xlsx
+++ b/Config/Excel/GachaTabs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D4058D-653E-4B7C-99C8-75E6388955A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9C6590-F56F-4893-957C-C6D1653DDA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -78,14 +78,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Textures/shop_2d_079</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Textures/shop_2d_080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Textures/shop_2d_082</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -214,17 +206,34 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Textures/shop_2d_084</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Textures/shop_2d_085</t>
-  </si>
-  <si>
     <t>Textures/shop_2d_086</t>
   </si>
   <si>
     <t>Textures/shop_2d_087</t>
+  </si>
+  <si>
+    <t>Textures/shop_2d_092</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_094</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_095</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_097</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_098</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_100</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -257,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,8 +279,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -316,13 +331,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,8 +371,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,8 +423,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}" name="テーブル1" displayName="テーブル1" ref="A1:J5" totalsRowShown="0">
-  <autoFilter ref="A1:J5" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}" name="テーブル1" displayName="テーブル1" ref="A1:J6" totalsRowShown="0">
+  <autoFilter ref="A1:J6" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{806F626C-3F0C-4B58-9C95-749914829FBF}" name="ID"/>
     <tableColumn id="3" xr3:uid="{011D1100-AB81-4B26-B0A2-907BE1BE4019}" name="LeftBtn"/>
@@ -696,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1B00CF-321F-4070-96EE-2D0073F8556E}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -715,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -730,73 +772,73 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
+      <c r="H3" s="10">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6">
-        <v>2</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
@@ -809,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G4" s="6">
         <v>15</v>
@@ -841,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G5" s="6">
         <v>16</v>
@@ -857,6 +899,38 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="14">
+        <v>18</v>
+      </c>
+      <c r="H6" s="14">
+        <v>7</v>
+      </c>
+      <c r="I6" s="14">
+        <v>17</v>
+      </c>
+      <c r="J6" s="14">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -884,7 +958,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -899,22 +973,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -927,7 +1001,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -967,42 +1041,42 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/GachaTabs.xlsx
+++ b/Config/Excel/GachaTabs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9C6590-F56F-4893-957C-C6D1653DDA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20DFE08-BE90-4FBF-A1CE-CD13D4CE4701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
@@ -741,7 +741,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -807,7 +807,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="10"/>
@@ -835,7 +835,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="10"/>
@@ -863,13 +863,13 @@
         <v>15</v>
       </c>
       <c r="H4" s="6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
         <v>14</v>
       </c>
       <c r="J4" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -895,7 +895,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
@@ -923,13 +923,13 @@
         <v>18</v>
       </c>
       <c r="H6" s="14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I6" s="14">
         <v>17</v>
       </c>
       <c r="J6" s="14">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/GachaTabs.xlsx
+++ b/Config/Excel/GachaTabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20DFE08-BE90-4FBF-A1CE-CD13D4CE4701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3C20F8-CC6B-4C19-A00D-2BED17D76EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7C52302-8B45-455B-93FF-B122845FC2A2}"/>
   </bookViews>
@@ -212,27 +212,27 @@
     <t>Textures/shop_2d_087</t>
   </si>
   <si>
-    <t>Textures/shop_2d_092</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Textures/shop_2d_094</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Textures/shop_2d_095</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Textures/shop_2d_097</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Textures/shop_2d_098</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Textures/shop_2d_100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_107</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_105</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_109</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -266,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,12 +277,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -346,7 +340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,49 +359,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="11">
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,19 +504,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}" name="テーブル1" displayName="テーブル1" ref="A1:J6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}" name="テーブル1" displayName="テーブル1" ref="A1:J6" totalsRowShown="0" dataDxfId="0">
   <autoFilter ref="A1:J6" xr:uid="{EA4A8897-0827-4E1C-A16E-2D15021AE184}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{806F626C-3F0C-4B58-9C95-749914829FBF}" name="ID"/>
-    <tableColumn id="3" xr3:uid="{011D1100-AB81-4B26-B0A2-907BE1BE4019}" name="LeftBtn"/>
-    <tableColumn id="16" xr3:uid="{F57EBF74-B152-4BBB-8DC6-408C3A59207D}" name="TopBtn"/>
-    <tableColumn id="9" xr3:uid="{9CFF5B5E-73EC-4167-8131-60B7A39861E1}" name="Image"/>
-    <tableColumn id="11" xr3:uid="{5BFBEE4B-E6DC-4A9D-8751-0A9C8484B6FA}" name="ToggleImageON"/>
-    <tableColumn id="12" xr3:uid="{E33F93AE-89BA-4578-A68B-790ED4E1971E}" name="ToggleImageOFF"/>
-    <tableColumn id="7" xr3:uid="{C5DEBF70-0838-4E0C-ADBD-3DC5D31DE75B}" name="GachaBtn1" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{E64789BC-83DA-46A2-9C82-CAE6A46F4331}" name="GachaGroup1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{0D28524B-FF97-4F24-8CE2-B7133B24D4BB}" name="GachaBtn2" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{D57AA263-7A70-4C7E-977E-79DA32B9934C}" name="GachaGroup2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{806F626C-3F0C-4B58-9C95-749914829FBF}" name="ID" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{011D1100-AB81-4B26-B0A2-907BE1BE4019}" name="LeftBtn" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{F57EBF74-B152-4BBB-8DC6-408C3A59207D}" name="TopBtn" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{9CFF5B5E-73EC-4167-8131-60B7A39861E1}" name="Image" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{5BFBEE4B-E6DC-4A9D-8751-0A9C8484B6FA}" name="ToggleImageON" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{E33F93AE-89BA-4578-A68B-790ED4E1971E}" name="ToggleImageOFF" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C5DEBF70-0838-4E0C-ADBD-3DC5D31DE75B}" name="GachaBtn1" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{E64789BC-83DA-46A2-9C82-CAE6A46F4331}" name="GachaGroup1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0D28524B-FF97-4F24-8CE2-B7133B24D4BB}" name="GachaBtn2" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{D57AA263-7A70-4C7E-977E-79DA32B9934C}" name="GachaGroup2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -741,7 +822,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -785,90 +866,90 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="8">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8">
+        <v>8</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="10">
-        <v>8</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <v>9</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="10"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="8">
         <v>15</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="8">
         <v>11</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="9">
         <v>14</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="8">
         <v>10</v>
       </c>
     </row>
@@ -876,59 +957,59 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="8">
         <v>16</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="8">
         <v>12</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>0</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>2</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="E6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="13">
         <v>18</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>14</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>17</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>13</v>
       </c>
     </row>
